--- a/biology/Botanique/Linaire_des_Alpes/Linaire_des_Alpes.xlsx
+++ b/biology/Botanique/Linaire_des_Alpes/Linaire_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linaria alpina · Muflier des Alpes, Gueule-de-lion des Alpes
 La Linaire des Alpes (Linaria alpina), également appelée Muflier des Alpes ou Gueule-de-lion des Alpes, est une espèce de plante herbacée de la famille des Scrophulariaceae selon la classification de Cronquist, ou des Plantaginaceae selon la classification phylogénétique APG III. Les linaires doivent leur nom à leurs feuilles étroites évoquant celles du lin cultivé. On rencontre cette espèce non seulement dans les Alpes, mais également dans d'autres reliefs d'Europe du Sud ou centrale.
@@ -512,13 +524,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour la description générale, voir la description du genre Linaria.
 			Plante en milieux rocailleux.
 			Plante en jardin botanique.
 			Corolles.
-La linaire des Alpes se caractérise par une corolle bleu violacé munie d'une gorge orangée, qui la rend la plupart du temps aisément reconnaissable (cf photo). On identifie cependant quelques spécimens unicolores, entièrement violacés, et notamment la très rare sous-espèce appelée Linaire des rochers (Linaria alpina subsp. petraea), présente surtout en Suisse[1].
+La linaire des Alpes se caractérise par une corolle bleu violacé munie d'une gorge orangée, qui la rend la plupart du temps aisément reconnaissable (cf photo). On identifie cependant quelques spécimens unicolores, entièrement violacés, et notamment la très rare sous-espèce appelée Linaire des rochers (Linaria alpina subsp. petraea), présente surtout en Suisse.
 			Forme bicolore.
 			Forme unicolore.
 			Linaria alpina subsp. filicaulis.
@@ -550,9 +564,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, on la rencontre dans le Jura, dans quelques stations de Savoie et Haute-Savoie, dans le parc du Mercantour (jusqu'à plus de 2 800 m)[2], dans les Pyrénées et dans deux stations en Bourgogne. On la trouve également dans d'autres lieux des Alpes, notamment sur les sommets du Champsaur (Hautes-Alpes).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, on la rencontre dans le Jura, dans quelques stations de Savoie et Haute-Savoie, dans le parc du Mercantour (jusqu'à plus de 2 800 m), dans les Pyrénées et dans deux stations en Bourgogne. On la trouve également dans d'autres lieux des Alpes, notamment sur les sommets du Champsaur (Hautes-Alpes).
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">en France, cette espèce est protégée en région Bourgogne (Article 1). En Suisse, son statut UICN est NT dans le Jura; elle est totalement protégée dans les cantons d'Appenzell Rhode intérieure, Neuchâtel et Vaud[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">en France, cette espèce est protégée en région Bourgogne (Article 1). En Suisse, son statut UICN est NT dans le Jura; elle est totalement protégée dans les cantons d'Appenzell Rhode intérieure, Neuchâtel et Vaud.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux sous-espèces se rencontrent dans les Alpes ou le Jura : Linaria alpina subsp. alpina (L.) Mill., 1768 et Linaria alpina subsp. petraea Rouy, 1909, aussi appelée Linaire du Jura[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux sous-espèces se rencontrent dans les Alpes ou le Jura : Linaria alpina subsp. alpina (L.) Mill., 1768 et Linaria alpina subsp. petraea Rouy, 1909, aussi appelée Linaire du Jura.
 </t>
         </is>
       </c>
